--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0678210d0a0b8db/Ambiente de Trabalho/ia_t1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_601F83516AC50B6D5590864B8C213E70591466B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E688B0E-1149-4EA5-A670-CDD21EFB1F6D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_601F83516AC51AFD17F342CA86213EB901964686" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9FF70B-B952-4980-AC13-3BB47B002ABB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,19 +212,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9958229064941406E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9995441436767578E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0071220397949219E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3522367477416992E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0022392272949219E-3</c:v>
+                  <c:v>6.9990158081054688E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9997825622558589E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0035457611083976E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1582584381103523E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0152797698974609E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -232,7 +232,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000000-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -283,19 +283,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5996694564819339E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9996376037597656E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0012550354003906E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7545185089111328E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9949417114257813E-3</c:v>
+                  <c:v>1.8965482711791989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9996585845947266E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9985599517822266E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4540863037109375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9974918365478524E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000001-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -354,19 +354,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6007413864135739E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9894580841064453E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3001203536987299E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9945068359375E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9979686737060547E-3</c:v>
+                  <c:v>3.500056266784668E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9985389709472656E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7003774642944339E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000209808349609E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0049037933349609E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,7 +374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000002-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -425,19 +425,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.1007528305053711E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5119476318359375E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0999679565429689E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.997802734375E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9993991851806641E-3</c:v>
+                  <c:v>3.7514448165893548E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999773025512701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5001773834228521E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9988288879394531E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9996585845947266E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000003-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -496,19 +496,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8014898300170898E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9952011108398438E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2990474700927729E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0013580322265621E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9979686737060547E-3</c:v>
+                  <c:v>3.75213623046875E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.201295852661133E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7993927001953122E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9539756774902344E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9997310638427726E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000004-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -567,19 +567,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4620285034179688E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.098990440368652E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1987686157226561E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0019779205322271E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9791336059570313E-3</c:v>
+                  <c:v>5.0004482269287109E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.451444625854492E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7002582550048832E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4997005462646479E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0002079010009774E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,7 +587,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000005-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -638,19 +638,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.6011219024658203E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0137977600097656E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.557135581970215E-2</c:v>
+                  <c:v>4.5010805130004883E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.153230667114258E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999763488769531E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0001659393310549E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9901218414306641E-3</c:v>
+                  <c:v>1.399970054626465E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +658,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000006-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -709,19 +709,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.9009571075439453E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2000322341918951E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4032840728759771E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0016899108886719E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0019493103027344E-3</c:v>
+                  <c:v>5.8034420013427727E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83720588684082E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1032333374023441E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0001144409179688E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.967803955078125E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000007-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -786,10 +786,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9706649780273438E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0190010070800779E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -800,7 +800,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000008-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -851,19 +851,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2549638748168951E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9994716644287109E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9993267059326172E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0079097747802726E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.990961074829102E-3</c:v>
+                  <c:v>1.598048210144043E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9975643157958976E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0029964447021484E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6576004028320313E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.993988037109375E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D7B3-47F5-A337-B9244A678D77}"/>
+              <c16:uniqueId val="{00000009-12DB-48A5-8B0F-CA9027E60D7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -942,16 +942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1302,9 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1345,34 +1343,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4.9958229064941406E-3</v>
+        <v>6.9990158081054688E-3</v>
       </c>
       <c r="C2">
-        <v>1.5996694564819339E-2</v>
+        <v>1.8965482711791989E-2</v>
       </c>
       <c r="D2">
-        <v>2.6007413864135739E-2</v>
+        <v>3.500056266784668E-2</v>
       </c>
       <c r="E2">
-        <v>3.1007528305053711E-2</v>
+        <v>3.7514448165893548E-2</v>
       </c>
       <c r="F2">
-        <v>2.8014898300170898E-2</v>
+        <v>3.75213623046875E-2</v>
       </c>
       <c r="G2">
-        <v>3.4620285034179688E-2</v>
+        <v>5.0004482269287109E-2</v>
       </c>
       <c r="H2">
-        <v>3.6011219024658203E-2</v>
+        <v>4.5010805130004883E-2</v>
       </c>
       <c r="I2">
-        <v>3.9009571075439453E-2</v>
+        <v>5.8034420013427727E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.2549638748168951E-2</v>
+        <v>1.598048210144043E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1380,34 +1378,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.9995441436767578E-3</v>
+        <v>2.9997825622558589E-3</v>
       </c>
       <c r="C3">
-        <v>4.9996376037597656E-3</v>
+        <v>7.9996585845947266E-3</v>
       </c>
       <c r="D3">
-        <v>3.9894580841064453E-3</v>
+        <v>6.9985389709472656E-3</v>
       </c>
       <c r="E3">
-        <v>9.5119476318359375E-3</v>
+        <v>1.2999773025512701E-2</v>
       </c>
       <c r="F3">
-        <v>6.9952011108398438E-3</v>
+        <v>1.201295852661133E-2</v>
       </c>
       <c r="G3">
-        <v>1.098990440368652E-2</v>
+        <v>1.451444625854492E-2</v>
       </c>
       <c r="H3">
-        <v>7.0137977600097656E-3</v>
+        <v>1.153230667114258E-2</v>
       </c>
       <c r="I3">
-        <v>1.2000322341918951E-2</v>
+        <v>1.83720588684082E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.9994716644287109E-3</v>
+        <v>3.9975643157958976E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1415,34 +1413,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7.0071220397949219E-3</v>
+        <v>7.0035457611083976E-3</v>
       </c>
       <c r="C4">
-        <v>9.0012550354003906E-3</v>
+        <v>9.9985599517822266E-3</v>
       </c>
       <c r="D4">
-        <v>1.3001203536987299E-2</v>
+        <v>1.7003774642944339E-2</v>
       </c>
       <c r="E4">
-        <v>1.0999679565429689E-2</v>
+        <v>1.5001773834228521E-2</v>
       </c>
       <c r="F4">
-        <v>1.2990474700927729E-2</v>
+        <v>1.7993927001953122E-2</v>
       </c>
       <c r="G4">
-        <v>1.1987686157226561E-2</v>
+        <v>1.7002582550048832E-2</v>
       </c>
       <c r="H4">
-        <v>1.557135581970215E-2</v>
+        <v>2.2999763488769531E-2</v>
       </c>
       <c r="I4">
-        <v>1.4032840728759771E-2</v>
+        <v>2.1032333374023441E-2</v>
       </c>
       <c r="J4">
-        <v>9.9706649780273438E-4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.9993267059326172E-3</v>
+        <v>8.0029964447021484E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1450,34 +1448,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3.3522367477416992E-2</v>
+        <v>4.1582584381103523E-2</v>
       </c>
       <c r="C5">
-        <v>5.7545185089111328E-2</v>
+        <v>6.4540863037109375E-2</v>
       </c>
       <c r="D5">
-        <v>9.9945068359375E-4</v>
+        <v>3.0000209808349609E-3</v>
       </c>
       <c r="E5">
-        <v>3.997802734375E-3</v>
+        <v>2.9988288879394531E-3</v>
       </c>
       <c r="F5">
-        <v>1.0013580322265621E-3</v>
+        <v>9.9539756774902344E-4</v>
       </c>
       <c r="G5">
-        <v>1.0019779205322271E-2</v>
+        <v>1.4997005462646479E-2</v>
       </c>
       <c r="H5">
         <v>1.0001659393310549E-3</v>
       </c>
       <c r="I5">
-        <v>3.0016899108886719E-3</v>
+        <v>5.0001144409179688E-3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.0190010070800779E-3</v>
       </c>
       <c r="K5">
-        <v>6.0079097747802726E-3</v>
+        <v>6.6576004028320313E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1485,34 +1483,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.0022392272949219E-3</v>
+        <v>3.0152797698974609E-3</v>
       </c>
       <c r="C6">
-        <v>3.9949417114257813E-3</v>
+        <v>4.9974918365478524E-3</v>
       </c>
       <c r="D6">
-        <v>4.9979686737060547E-3</v>
+        <v>8.0049037933349609E-3</v>
       </c>
       <c r="E6">
-        <v>4.9993991851806641E-3</v>
+        <v>7.9996585845947266E-3</v>
       </c>
       <c r="F6">
-        <v>4.9979686737060547E-3</v>
+        <v>6.9997310638427726E-3</v>
       </c>
       <c r="G6">
-        <v>4.9791336059570313E-3</v>
+        <v>7.0002079010009774E-3</v>
       </c>
       <c r="H6">
-        <v>7.9901218414306641E-3</v>
+        <v>1.399970054626465E-2</v>
       </c>
       <c r="I6">
-        <v>6.0019493103027344E-3</v>
+        <v>9.967803955078125E-3</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.990961074829102E-3</v>
+        <v>3.993988037109375E-3</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0678210d0a0b8db/Ambiente de Trabalho/ia_t1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_601F83516AC51AFD17F342CA86213EB901964686" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9FF70B-B952-4980-AC13-3BB47B002ABB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>depth</t>
   </si>
@@ -34,16 +28,25 @@
     <t>a_star</t>
   </si>
   <si>
+    <t>a_w_m_star</t>
+  </si>
+  <si>
     <t>greedy_chebyshev</t>
   </si>
   <si>
     <t>a_star_chebyshev</t>
   </si>
   <si>
+    <t>a_star_w_chebyshev</t>
+  </si>
+  <si>
     <t>greedy_euclidean</t>
   </si>
   <si>
     <t>a_star_euclidean</t>
+  </si>
+  <si>
+    <t>a_star_w_euclidean</t>
   </si>
   <si>
     <t>genetic</t>
@@ -70,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,37 +137,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -212,29 +195,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.9990158081054688E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9997825622558589E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0035457611083976E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1582584381103523E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0152797698974609E-3</c:v>
+                  <c:v>0.01400017738342285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00500798225402832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01300692558288574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07653522491455078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005999088287353516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -283,29 +260,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8965482711791989E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9996585845947266E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9985599517822266E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4540863037109375E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9974918365478524E-3</c:v>
+                  <c:v>0.03056049346923828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01401019096374512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01798868179321289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1045851707458496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009003639221191406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -354,29 +325,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.500056266784668E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9985389709472656E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7003774642944339E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0000209808349609E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0049037933349609E-3</c:v>
+                  <c:v>0.06157779693603516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.008986711502075195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03400731086730957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0009984970092773438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01300430297851562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -425,29 +390,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7514448165893548E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2999773025512701E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5001773834228521E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9988288879394531E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9996585845947266E-3</c:v>
+                  <c:v>0.07957172393798828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02598142623901367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03056883811950684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005000114440917969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0149996280670166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -458,7 +417,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>greedy_chebyshev</c:v>
+                  <c:v>a_w_m_star</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -496,29 +455,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.75213623046875E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.201295852661133E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7993927001953122E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9539756774902344E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9997310638427726E-3</c:v>
+                  <c:v>0.07455301284790039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02400064468383789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03000640869140625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002989292144775391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01500058174133301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -529,7 +482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_star_chebyshev</c:v>
+                  <c:v>greedy_chebyshev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,29 +520,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.0004482269287109E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.451444625854492E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7002582550048832E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4997005462646479E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0002079010009774E-3</c:v>
+                  <c:v>0.07121562957763672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01900434494018555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03404450416564941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002588272094726562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01297497749328613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -600,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>greedy_euclidean</c:v>
+                  <c:v>a_star_chebyshev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -638,29 +585,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.5010805130004883E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.153230667114258E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2999763488769531E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0001659393310549E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.399970054626465E-2</c:v>
+                  <c:v>0.1028342247009277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02596569061279297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03303194046020508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3045156002044678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01304197311401367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -671,7 +612,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_star_euclidean</c:v>
+                  <c:v>a_star_w_chebyshev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,29 +650,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.8034420013427727E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.83720588684082E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1032333374023441E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0001144409179688E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.967803955078125E-3</c:v>
+                  <c:v>0.09363222122192383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02852249145507812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03363919258117676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08554363250732422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0140068531036377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -742,7 +677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>genetic</c:v>
+                  <c:v>greedy_euclidean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -780,29 +715,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0190010070800779E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0825350284576416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02099895477294922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04301023483276367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003004074096679688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02154731750488281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -813,7 +742,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dfs_random</c:v>
+                  <c:v>a_star_euclidean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -851,39 +780,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.598048210144043E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9975643157958976E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0029964447021484E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6576004028320313E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.993988037109375E-3</c:v>
+                  <c:v>0.1215593814849854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03300046920776367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03760194778442383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3067829608917236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01597023010253906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-12DB-48A5-8B0F-CA9027E60D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star_w_euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1140484809875488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03300023078918457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0375516414642334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06807160377502441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01658964157104492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>genetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001001119613647461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0009996891021728516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0009996891021728516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.005999565124511719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00800013542175293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01197290420532227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1250779628753662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004998922348022461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
@@ -892,30 +1002,22 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -924,11 +1026,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -942,26 +1042,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1022,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,27 +1148,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,24 +1182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1299,14 +1357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,180 +1395,234 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>6.9990158081054688E-3</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="C2">
-        <v>1.8965482711791989E-2</v>
+        <v>0.03056049346923828</v>
       </c>
       <c r="D2">
-        <v>3.500056266784668E-2</v>
+        <v>0.06157779693603516</v>
       </c>
       <c r="E2">
-        <v>3.7514448165893548E-2</v>
+        <v>0.07957172393798828</v>
       </c>
       <c r="F2">
-        <v>3.75213623046875E-2</v>
+        <v>0.07455301284790039</v>
       </c>
       <c r="G2">
-        <v>5.0004482269287109E-2</v>
+        <v>0.07121562957763672</v>
       </c>
       <c r="H2">
-        <v>4.5010805130004883E-2</v>
+        <v>0.1028342247009277</v>
       </c>
       <c r="I2">
-        <v>5.8034420013427727E-2</v>
+        <v>0.09363222122192383</v>
       </c>
       <c r="J2">
+        <v>0.0825350284576416</v>
+      </c>
+      <c r="K2">
+        <v>0.1215593814849854</v>
+      </c>
+      <c r="L2">
+        <v>0.1140484809875488</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>1.598048210144043E-2</v>
+      <c r="N2">
+        <v>0.005999565124511719</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>2.9997825622558589E-3</v>
+        <v>0.00500798225402832</v>
       </c>
       <c r="C3">
-        <v>7.9996585845947266E-3</v>
+        <v>0.01401019096374512</v>
       </c>
       <c r="D3">
-        <v>6.9985389709472656E-3</v>
+        <v>0.008986711502075195</v>
       </c>
       <c r="E3">
-        <v>1.2999773025512701E-2</v>
+        <v>0.02598142623901367</v>
       </c>
       <c r="F3">
-        <v>1.201295852661133E-2</v>
+        <v>0.02400064468383789</v>
       </c>
       <c r="G3">
-        <v>1.451444625854492E-2</v>
+        <v>0.01900434494018555</v>
       </c>
       <c r="H3">
-        <v>1.153230667114258E-2</v>
+        <v>0.02596569061279297</v>
       </c>
       <c r="I3">
-        <v>1.83720588684082E-2</v>
+        <v>0.02852249145507812</v>
       </c>
       <c r="J3">
+        <v>0.02099895477294922</v>
+      </c>
+      <c r="K3">
+        <v>0.03300046920776367</v>
+      </c>
+      <c r="L3">
+        <v>0.03300023078918457</v>
+      </c>
+      <c r="M3">
+        <v>0.001001119613647461</v>
+      </c>
+      <c r="N3">
+        <v>0.00800013542175293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.01300692558288574</v>
+      </c>
+      <c r="C4">
+        <v>0.01798868179321289</v>
+      </c>
+      <c r="D4">
+        <v>0.03400731086730957</v>
+      </c>
+      <c r="E4">
+        <v>0.03056883811950684</v>
+      </c>
+      <c r="F4">
+        <v>0.03000640869140625</v>
+      </c>
+      <c r="G4">
+        <v>0.03404450416564941</v>
+      </c>
+      <c r="H4">
+        <v>0.03303194046020508</v>
+      </c>
+      <c r="I4">
+        <v>0.03363919258117676</v>
+      </c>
+      <c r="J4">
+        <v>0.04301023483276367</v>
+      </c>
+      <c r="K4">
+        <v>0.03760194778442383</v>
+      </c>
+      <c r="L4">
+        <v>0.0375516414642334</v>
+      </c>
+      <c r="M4">
+        <v>0.0009996891021728516</v>
+      </c>
+      <c r="N4">
+        <v>0.01197290420532227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.07653522491455078</v>
+      </c>
+      <c r="C5">
+        <v>0.1045851707458496</v>
+      </c>
+      <c r="D5">
+        <v>0.0009984970092773438</v>
+      </c>
+      <c r="E5">
+        <v>0.005000114440917969</v>
+      </c>
+      <c r="F5">
+        <v>0.002989292144775391</v>
+      </c>
+      <c r="G5">
+        <v>0.002588272094726562</v>
+      </c>
+      <c r="H5">
+        <v>0.3045156002044678</v>
+      </c>
+      <c r="I5">
+        <v>0.08554363250732422</v>
+      </c>
+      <c r="J5">
+        <v>0.003004074096679688</v>
+      </c>
+      <c r="K5">
+        <v>0.3067829608917236</v>
+      </c>
+      <c r="L5">
+        <v>0.06807160377502441</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>3.9975643157958976E-3</v>
+      <c r="N5">
+        <v>0.1250779628753662</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>7.0035457611083976E-3</v>
-      </c>
-      <c r="C4">
-        <v>9.9985599517822266E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.7003774642944339E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.5001773834228521E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.7993927001953122E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.7002582550048832E-2</v>
-      </c>
-      <c r="H4">
-        <v>2.2999763488769531E-2</v>
-      </c>
-      <c r="I4">
-        <v>2.1032333374023441E-2</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>8.0029964447021484E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>4.1582584381103523E-2</v>
-      </c>
-      <c r="C5">
-        <v>6.4540863037109375E-2</v>
-      </c>
-      <c r="D5">
-        <v>3.0000209808349609E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.9988288879394531E-3</v>
-      </c>
-      <c r="F5">
-        <v>9.9539756774902344E-4</v>
-      </c>
-      <c r="G5">
-        <v>1.4997005462646479E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.0001659393310549E-3</v>
-      </c>
-      <c r="I5">
-        <v>5.0001144409179688E-3</v>
-      </c>
-      <c r="J5">
-        <v>1.0190010070800779E-3</v>
-      </c>
-      <c r="K5">
-        <v>6.6576004028320313E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>3.0152797698974609E-3</v>
+        <v>0.005999088287353516</v>
       </c>
       <c r="C6">
-        <v>4.9974918365478524E-3</v>
+        <v>0.009003639221191406</v>
       </c>
       <c r="D6">
-        <v>8.0049037933349609E-3</v>
+        <v>0.01300430297851562</v>
       </c>
       <c r="E6">
-        <v>7.9996585845947266E-3</v>
+        <v>0.0149996280670166</v>
       </c>
       <c r="F6">
-        <v>6.9997310638427726E-3</v>
+        <v>0.01500058174133301</v>
       </c>
       <c r="G6">
-        <v>7.0002079010009774E-3</v>
+        <v>0.01297497749328613</v>
       </c>
       <c r="H6">
-        <v>1.399970054626465E-2</v>
+        <v>0.01304197311401367</v>
       </c>
       <c r="I6">
-        <v>9.967803955078125E-3</v>
+        <v>0.0140068531036377</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02154731750488281</v>
       </c>
       <c r="K6">
-        <v>3.993988037109375E-3</v>
+        <v>0.01597023010253906</v>
+      </c>
+      <c r="L6">
+        <v>0.01658964157104492</v>
+      </c>
+      <c r="M6">
+        <v>0.0009996891021728516</v>
+      </c>
+      <c r="N6">
+        <v>0.004998922348022461</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0678210d0a0b8db/Ambiente de Trabalho/ia_t1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B7778A11B63BB3D9D4B19471090DA9EE5EAB9AF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B23B91-DF92-45DC-93EC-528127AA4B3D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Execution Time" sheetId="1" r:id="rId1"/>
+    <sheet name="Memory Usage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>depth</t>
   </si>
@@ -73,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,23 +144,43 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Execution Time'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -167,7 +194,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -190,35 +217,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>'Execution Time'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.01400017738342285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00500798225402832</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01300692558288574</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.07653522491455078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005999088287353516</c:v>
+                  <c:v>1.4531373977661129E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1253776550292969E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3280630111694339E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1082699298858643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9258213043212891E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Execution Time'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -232,7 +265,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -255,35 +288,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>'Execution Time'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03056049346923828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01401019096374512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01798868179321289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1045851707458496</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.009003639221191406</c:v>
+                  <c:v>3.1523704528808587E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6091823577880859E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9050836563110352E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2557907104492188E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5314979553222656E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Execution Time'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -297,7 +336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -320,35 +359,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>'Execution Time'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06157779693603516</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.008986711502075195</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03400731086730957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0009984970092773438</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01300430297851562</c:v>
+                  <c:v>5.9856891632080078E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5834732055664063E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5394430160522461E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0001659393310549E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1070966720581049E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Execution Time'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -362,7 +407,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -385,35 +430,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>'Execution Time'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.07957172393798828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02598142623901367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03056883811950684</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.005000114440917969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0149996280670166</c:v>
+                  <c:v>7.1593523025512695E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6578426361083981E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.106784820556641E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0242671966552726E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5385866165161129E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Execution Time'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,7 +478,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -450,35 +501,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:f>'Execution Time'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.07455301284790039</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02400064468383789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03000640869140625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.002989292144775391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01500058174133301</c:v>
+                  <c:v>6.6287040710449219E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.45518684387207E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0665397644042969E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9977092742919922E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5052080154418951E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'Execution Time'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -492,7 +549,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -515,35 +572,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>'Execution Time'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.07121562957763672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01900434494018555</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03404450416564941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.002588272094726562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01297497749328613</c:v>
+                  <c:v>7.0326566696166992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0090341567993161E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9586305618286133E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0170211791992192E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4539957046508791E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'Execution Time'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -557,7 +620,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -580,35 +643,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:f>'Execution Time'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1028342247009277</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02596569061279297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03303194046020508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3045156002044678</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01304197311401367</c:v>
+                  <c:v>9.8938226699829102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.762556076049805E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4873485565185547E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31370806694030762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3517856597900391E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>'Execution Time'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -622,7 +691,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -645,35 +714,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>'Execution Time'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.09363222122192383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02852249145507812</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03363919258117676</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08554363250732422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0140068531036377</c:v>
+                  <c:v>9.2776298522949219E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.959847450256348E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7579536437988281E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1301441192626953E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5090227127075201E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>'Execution Time'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -687,7 +762,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -710,35 +785,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>'Execution Time'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0825350284576416</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02099895477294922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04301023483276367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003004074096679688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02154731750488281</c:v>
+                  <c:v>7.1217060089111328E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8058538436889648E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5629978179931641E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4920234680175779E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0047903060913089E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>'Execution Time'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -752,7 +833,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -775,35 +856,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>'Execution Time'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1215593814849854</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03300046920776367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03760194778442383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3067829608917236</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01597023010253906</c:v>
+                  <c:v>0.10009264945983889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7761936187744141E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8610219955444343E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2321324348449707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.503276824951172E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>'Execution Time'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -817,7 +904,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -840,35 +927,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:f>'Execution Time'!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1140484809875488</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03300023078918457</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0375516414642334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06807160377502441</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01658964157104492</c:v>
+                  <c:v>9.5781087875366211E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8076887130737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8617134094238281E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2377462387084961E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6058683395385739E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>'Execution Time'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -882,7 +975,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -905,7 +998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:f>'Execution Time'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -913,27 +1006,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001001119613647461</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0009996891021728516</c:v>
+                  <c:v>9.9849700927734375E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5063285827636721E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0009996891021728516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>'Execution Time'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -947,7 +1046,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -970,30 +1069,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$6</c:f>
+              <c:f>'Execution Time'!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.005999565124511719</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00800013542175293</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01197290420532227</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1250779628753662</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.004998922348022461</c:v>
+                  <c:v>3.4116029739379883E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.453018188476562E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6844272613525391E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4660787582397461E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5289478302001953E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D407-4627-A0E0-26FD3E045B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
@@ -1002,22 +1115,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -1026,9 +1147,1017 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>229255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2301980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>749464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>188697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>189456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_w_m_star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy_chebyshev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>208794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star_chebyshev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>213568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star_w_chebyshev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy_euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>178872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star_euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>199564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a_star_w_euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>192508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>genetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Maze 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maze 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maze 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maze 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maze 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>299336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1524876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3AC6-464B-B793-2E614EA75EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1042,20 +2171,67 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1116,7 +2292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,9 +2324,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,6 +2376,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1357,14 +2569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,224 +2619,501 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.01400017738342285</v>
+        <v>1.4531373977661129E-2</v>
       </c>
       <c r="C2">
-        <v>0.03056049346923828</v>
+        <v>3.1523704528808587E-2</v>
       </c>
       <c r="D2">
-        <v>0.06157779693603516</v>
+        <v>5.9856891632080078E-2</v>
       </c>
       <c r="E2">
-        <v>0.07957172393798828</v>
+        <v>7.1593523025512695E-2</v>
       </c>
       <c r="F2">
-        <v>0.07455301284790039</v>
+        <v>6.6287040710449219E-2</v>
       </c>
       <c r="G2">
-        <v>0.07121562957763672</v>
+        <v>7.0326566696166992E-2</v>
       </c>
       <c r="H2">
-        <v>0.1028342247009277</v>
+        <v>9.8938226699829102E-2</v>
       </c>
       <c r="I2">
-        <v>0.09363222122192383</v>
+        <v>9.2776298522949219E-2</v>
       </c>
       <c r="J2">
-        <v>0.0825350284576416</v>
+        <v>7.1217060089111328E-2</v>
       </c>
       <c r="K2">
-        <v>0.1215593814849854</v>
+        <v>0.10009264945983889</v>
       </c>
       <c r="L2">
-        <v>0.1140484809875488</v>
+        <v>9.5781087875366211E-2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.005999565124511719</v>
+        <v>3.4116029739379883E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.00500798225402832</v>
+        <v>7.1253776550292969E-3</v>
       </c>
       <c r="C3">
-        <v>0.01401019096374512</v>
+        <v>1.6091823577880859E-2</v>
       </c>
       <c r="D3">
-        <v>0.008986711502075195</v>
+        <v>9.5834732055664063E-3</v>
       </c>
       <c r="E3">
-        <v>0.02598142623901367</v>
+        <v>2.6578426361083981E-2</v>
       </c>
       <c r="F3">
-        <v>0.02400064468383789</v>
+        <v>2.45518684387207E-2</v>
       </c>
       <c r="G3">
-        <v>0.01900434494018555</v>
+        <v>2.0090341567993161E-2</v>
       </c>
       <c r="H3">
-        <v>0.02596569061279297</v>
+        <v>2.762556076049805E-2</v>
       </c>
       <c r="I3">
-        <v>0.02852249145507812</v>
+        <v>2.959847450256348E-2</v>
       </c>
       <c r="J3">
-        <v>0.02099895477294922</v>
+        <v>1.8058538436889648E-2</v>
       </c>
       <c r="K3">
-        <v>0.03300046920776367</v>
+        <v>2.7761936187744141E-2</v>
       </c>
       <c r="L3">
-        <v>0.03300023078918457</v>
+        <v>2.8076887130737301E-2</v>
       </c>
       <c r="M3">
-        <v>0.001001119613647461</v>
+        <v>9.9849700927734375E-4</v>
       </c>
       <c r="N3">
-        <v>0.00800013542175293</v>
+        <v>1.453018188476562E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.01300692558288574</v>
+        <v>1.3280630111694339E-2</v>
       </c>
       <c r="C4">
-        <v>0.01798868179321289</v>
+        <v>1.9050836563110352E-2</v>
       </c>
       <c r="D4">
-        <v>0.03400731086730957</v>
+        <v>3.5394430160522461E-2</v>
       </c>
       <c r="E4">
-        <v>0.03056883811950684</v>
+        <v>3.106784820556641E-2</v>
       </c>
       <c r="F4">
-        <v>0.03000640869140625</v>
+        <v>3.0665397644042969E-2</v>
       </c>
       <c r="G4">
-        <v>0.03404450416564941</v>
+        <v>3.9586305618286133E-2</v>
       </c>
       <c r="H4">
-        <v>0.03303194046020508</v>
+        <v>3.4873485565185547E-2</v>
       </c>
       <c r="I4">
-        <v>0.03363919258117676</v>
+        <v>3.7579536437988281E-2</v>
       </c>
       <c r="J4">
-        <v>0.04301023483276367</v>
+        <v>4.5629978179931641E-2</v>
       </c>
       <c r="K4">
-        <v>0.03760194778442383</v>
+        <v>3.8610219955444343E-2</v>
       </c>
       <c r="L4">
-        <v>0.0375516414642334</v>
+        <v>3.8617134094238281E-2</v>
       </c>
       <c r="M4">
-        <v>0.0009996891021728516</v>
+        <v>1.5063285827636721E-3</v>
       </c>
       <c r="N4">
-        <v>0.01197290420532227</v>
+        <v>1.6844272613525391E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.07653522491455078</v>
+        <v>0.1082699298858643</v>
       </c>
       <c r="C5">
-        <v>0.1045851707458496</v>
+        <v>9.2557907104492188E-2</v>
       </c>
       <c r="D5">
-        <v>0.0009984970092773438</v>
+        <v>1.0001659393310549E-3</v>
       </c>
       <c r="E5">
-        <v>0.005000114440917969</v>
+        <v>4.0242671966552726E-3</v>
       </c>
       <c r="F5">
-        <v>0.002989292144775391</v>
+        <v>1.9977092742919922E-3</v>
       </c>
       <c r="G5">
-        <v>0.002588272094726562</v>
+        <v>2.0170211791992192E-3</v>
       </c>
       <c r="H5">
-        <v>0.3045156002044678</v>
+        <v>0.31370806694030762</v>
       </c>
       <c r="I5">
-        <v>0.08554363250732422</v>
+        <v>9.1301441192626953E-2</v>
       </c>
       <c r="J5">
-        <v>0.003004074096679688</v>
+        <v>1.4920234680175779E-3</v>
       </c>
       <c r="K5">
-        <v>0.3067829608917236</v>
+        <v>0.2321324348449707</v>
       </c>
       <c r="L5">
-        <v>0.06807160377502441</v>
+        <v>5.2377462387084961E-2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1250779628753662</v>
+        <v>6.4660787582397461E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.005999088287353516</v>
+        <v>6.9258213043212891E-3</v>
       </c>
       <c r="C6">
-        <v>0.009003639221191406</v>
+        <v>9.5314979553222656E-3</v>
       </c>
       <c r="D6">
-        <v>0.01300430297851562</v>
+        <v>1.1070966720581049E-2</v>
       </c>
       <c r="E6">
-        <v>0.0149996280670166</v>
+        <v>1.5385866165161129E-2</v>
       </c>
       <c r="F6">
-        <v>0.01500058174133301</v>
+        <v>1.5052080154418951E-2</v>
       </c>
       <c r="G6">
-        <v>0.01297497749328613</v>
+        <v>1.4539957046508791E-2</v>
       </c>
       <c r="H6">
-        <v>0.01304197311401367</v>
+        <v>1.3517856597900391E-2</v>
       </c>
       <c r="I6">
-        <v>0.0140068531036377</v>
+        <v>1.5090227127075201E-2</v>
       </c>
       <c r="J6">
-        <v>0.02154731750488281</v>
+        <v>2.0047903060913089E-2</v>
       </c>
       <c r="K6">
-        <v>0.01597023010253906</v>
+        <v>1.503276824951172E-2</v>
       </c>
       <c r="L6">
-        <v>0.01658964157104492</v>
+        <v>1.6058683395385739E-2</v>
       </c>
       <c r="M6">
-        <v>0.0009996891021728516</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004998922348022461</v>
+        <v>8.5289478302001953E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>229255</v>
+      </c>
+      <c r="C2">
+        <v>749464</v>
+      </c>
+      <c r="D2">
+        <v>188697</v>
+      </c>
+      <c r="E2">
+        <v>189456</v>
+      </c>
+      <c r="F2">
+        <v>180040</v>
+      </c>
+      <c r="G2">
+        <v>208794</v>
+      </c>
+      <c r="H2">
+        <v>213568</v>
+      </c>
+      <c r="I2">
+        <v>200688</v>
+      </c>
+      <c r="J2">
+        <v>178872</v>
+      </c>
+      <c r="K2">
+        <v>199564</v>
+      </c>
+      <c r="L2">
+        <v>192508</v>
+      </c>
+      <c r="M2">
+        <v>1360</v>
+      </c>
+      <c r="N2">
+        <v>299336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>50564</v>
+      </c>
+      <c r="C3">
+        <v>292448</v>
+      </c>
+      <c r="D3">
+        <v>46632</v>
+      </c>
+      <c r="E3">
+        <v>81115</v>
+      </c>
+      <c r="F3">
+        <v>74096</v>
+      </c>
+      <c r="G3">
+        <v>70080</v>
+      </c>
+      <c r="H3">
+        <v>103296</v>
+      </c>
+      <c r="I3">
+        <v>79128</v>
+      </c>
+      <c r="J3">
+        <v>65944</v>
+      </c>
+      <c r="K3">
+        <v>104000</v>
+      </c>
+      <c r="L3">
+        <v>78880</v>
+      </c>
+      <c r="M3">
+        <v>336</v>
+      </c>
+      <c r="N3">
+        <v>87712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>159176</v>
+      </c>
+      <c r="C4">
+        <v>402408</v>
+      </c>
+      <c r="D4">
+        <v>144395</v>
+      </c>
+      <c r="E4">
+        <v>132496</v>
+      </c>
+      <c r="F4">
+        <v>132899</v>
+      </c>
+      <c r="G4">
+        <v>139688</v>
+      </c>
+      <c r="H4">
+        <v>126448</v>
+      </c>
+      <c r="I4">
+        <v>132216</v>
+      </c>
+      <c r="J4">
+        <v>137372</v>
+      </c>
+      <c r="K4">
+        <v>127800</v>
+      </c>
+      <c r="L4">
+        <v>132840</v>
+      </c>
+      <c r="M4">
+        <v>336</v>
+      </c>
+      <c r="N4">
+        <v>147774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2301980</v>
+      </c>
+      <c r="C5">
+        <v>1970520</v>
+      </c>
+      <c r="D5">
+        <v>13624</v>
+      </c>
+      <c r="E5">
+        <v>41488</v>
+      </c>
+      <c r="F5">
+        <v>21696</v>
+      </c>
+      <c r="G5">
+        <v>18600</v>
+      </c>
+      <c r="H5">
+        <v>376752</v>
+      </c>
+      <c r="I5">
+        <v>204160</v>
+      </c>
+      <c r="J5">
+        <v>18296</v>
+      </c>
+      <c r="K5">
+        <v>334088</v>
+      </c>
+      <c r="L5">
+        <v>162272</v>
+      </c>
+      <c r="M5">
+        <v>336</v>
+      </c>
+      <c r="N5">
+        <v>1524876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>56296</v>
+      </c>
+      <c r="C6">
+        <v>161880</v>
+      </c>
+      <c r="D6">
+        <v>58600</v>
+      </c>
+      <c r="E6">
+        <v>55160</v>
+      </c>
+      <c r="F6">
+        <v>58816</v>
+      </c>
+      <c r="G6">
+        <v>61560</v>
+      </c>
+      <c r="H6">
+        <v>54504</v>
+      </c>
+      <c r="I6">
+        <v>63496</v>
+      </c>
+      <c r="J6">
+        <v>67244</v>
+      </c>
+      <c r="K6">
+        <v>55448</v>
+      </c>
+      <c r="L6">
+        <v>62000</v>
+      </c>
+      <c r="M6">
+        <v>336</v>
+      </c>
+      <c r="N6">
+        <v>59712</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0678210d0a0b8db/Ambiente de Trabalho/ia_t1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B7778A11B63BB3D9D4B19471090DA9EE5EAB9AF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B23B91-DF92-45DC-93EC-528127AA4B3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Execution Time" sheetId="1" r:id="rId1"/>
     <sheet name="Memory Usage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>depth</t>
   </si>
@@ -76,12 +70,15 @@
   <si>
     <t>Maze 5</t>
   </si>
+  <si>
+    <t>Maze 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,37 +141,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -194,9 +171,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -211,40 +188,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$B$2:$B$6</c:f>
+              <c:f>'Execution Time'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4531373977661129E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1253776550292969E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3280630111694339E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1082699298858643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9258213043212891E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01716232299804688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.008615255355834961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01722025871276855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1443655490875244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009601831436157227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1166551113128662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -265,9 +242,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -282,40 +259,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$C$2:$C$6</c:f>
+              <c:f>'Execution Time'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.1523704528808587E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6091823577880859E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9050836563110352E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2557907104492188E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5314979553222656E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06823015213012695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01758646965026855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02474069595336914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0829617977142334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01206302642822266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08032369613647461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -336,9 +313,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -353,40 +330,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$D$2:$D$6</c:f>
+              <c:f>'Execution Time'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.9856891632080078E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5834732055664063E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5394430160522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0001659393310549E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1070966720581049E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.07553768157958984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01164674758911133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04384517669677734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002022266387939453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01460742950439453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00101161003112793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -407,9 +384,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -424,40 +401,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$E$2:$E$6</c:f>
+              <c:f>'Execution Time'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1593523025512695E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6578426361083981E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.106784820556641E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0242671966552726E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5385866165161129E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.09587621688842773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03079724311828613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03778553009033203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.004983901977539062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01792645454406738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005597114562988281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -478,9 +455,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -495,40 +472,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$F$2:$F$6</c:f>
+              <c:f>'Execution Time'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.6287040710449219E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.45518684387207E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0665397644042969E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9977092742919922E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5052080154418951E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0826716423034668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02837252616882324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03920149803161621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003007888793945312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01811051368713379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.003007888793945312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -549,9 +526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -566,40 +543,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$G$2:$G$6</c:f>
+              <c:f>'Execution Time'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.0326566696166992E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0090341567993161E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9586305618286133E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0170211791992192E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4539957046508791E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.09094977378845215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02524566650390625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04629683494567871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003209829330444336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01654863357543945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00255131721496582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -620,9 +597,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -637,40 +614,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$H$2:$H$6</c:f>
+              <c:f>'Execution Time'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.8938226699829102E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.762556076049805E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4873485565185547E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31370806694030762</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3517856597900391E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1165740489959717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04194283485412598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04500627517700195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.389542818069458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01713347434997559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3804805278778076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -691,9 +668,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -708,40 +685,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$I$2:$I$6</c:f>
+              <c:f>'Execution Time'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2776298522949219E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.959847450256348E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7579536437988281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1301441192626953E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5090227127075201E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1080152988433838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03485202789306641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04234027862548828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1783123016357422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01990604400634766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1158096790313721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -762,9 +739,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -779,40 +756,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$J$2:$J$6</c:f>
+              <c:f>'Execution Time'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1217060089111328E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8058538436889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5629978179931641E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4920234680175779E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0047903060913089E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.09156632423400879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02164721488952637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05687499046325684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003012418746948242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02410101890563965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0035247802734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -833,9 +810,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -850,40 +827,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$K$2:$K$6</c:f>
+              <c:f>'Execution Time'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.10009264945983889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7761936187744141E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8610219955444343E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2321324348449707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.503276824951172E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1220412254333496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03421521186828613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04593586921691895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2831780910491943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01981711387634277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3034822940826416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -904,9 +881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -921,40 +898,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$L$2:$L$6</c:f>
+              <c:f>'Execution Time'!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.5781087875366211E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8076887130737301E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8617134094238281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2377462387084961E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6058683395385739E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1382465362548828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03977847099304199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05380964279174805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06877613067626953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02460837364196777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07208609580993652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -975,9 +952,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -992,40 +969,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$M$2:$M$6</c:f>
+              <c:f>'Execution Time'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9849700927734375E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5063285827636721E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.001999616622924805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0005078315734863281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001006603240966797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0009996891021728516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001013040542602539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1046,9 +1023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1063,50 +1040,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$N$2:$N$6</c:f>
+              <c:f>'Execution Time'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.4116029739379883E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.453018188476562E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6844272613525391E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4660787582397461E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5289478302001953E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.02159595489501953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01514029502868652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0175011157989502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1978034973144531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01056599617004395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1057941913604736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
@@ -1115,30 +1084,58 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mazes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -1147,11 +1144,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1162,25 +1157,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1200,9 +1183,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1217,16 +1200,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$B$2:$B$6</c:f>
+              <c:f>'Memory Usage'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>229255</c:v>
                 </c:pt>
@@ -1241,16 +1227,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2301104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1271,9 +1254,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1288,40 +1271,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$C$2:$C$6</c:f>
+              <c:f>'Memory Usage'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>749464</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>292448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>402408</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1970520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161880</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>749768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1979872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1963992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1342,9 +1325,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1359,40 +1342,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$D$2:$D$6</c:f>
+              <c:f>'Memory Usage'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>188697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144395</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>187537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144371</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13624</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1413,9 +1396,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1430,18 +1413,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$E$2:$E$6</c:f>
+              <c:f>'Memory Usage'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>189456</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>194232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81115</c:v>
@@ -1450,20 +1436,17 @@
                   <c:v>132496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41488</c:v>
+                  <c:v>41056</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1484,9 +1467,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1501,18 +1484,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$F$2:$F$6</c:f>
+              <c:f>'Memory Usage'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>180040</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>182384</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74096</c:v>
@@ -1525,16 +1511,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1555,9 +1538,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1572,18 +1555,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$G$2:$G$6</c:f>
+              <c:f>'Memory Usage'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>208794</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192978</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70080</c:v>
@@ -1596,16 +1582,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1626,9 +1609,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1643,18 +1626,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$H$2:$H$6</c:f>
+              <c:f>'Memory Usage'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>213568</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>208408</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>103296</c:v>
@@ -1663,20 +1649,17 @@
                   <c:v>126448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>376752</c:v>
+                  <c:v>376800</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1697,9 +1680,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1714,18 +1697,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$I$2:$I$6</c:f>
+              <c:f>'Memory Usage'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>200688</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>194368</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>79128</c:v>
@@ -1734,20 +1720,17 @@
                   <c:v>132216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63496</c:v>
+                  <c:v>205184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1768,9 +1751,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1785,18 +1768,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$J$2:$J$6</c:f>
+              <c:f>'Memory Usage'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>178872</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>182320</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>65944</c:v>
@@ -1809,16 +1795,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1839,9 +1822,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1856,18 +1839,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$K$2:$K$6</c:f>
+              <c:f>'Memory Usage'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>199564</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>199356</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>104000</c:v>
@@ -1880,16 +1866,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1910,9 +1893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1927,18 +1910,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$L$2:$L$6</c:f>
+              <c:f>'Memory Usage'!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>192508</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>190228</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78880</c:v>
@@ -1951,16 +1937,13 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1981,9 +1964,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1998,16 +1981,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$M$2:$M$6</c:f>
+              <c:f>'Memory Usage'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -2021,17 +2007,14 @@
                   <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -2052,9 +2035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -2069,50 +2052,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$N$2:$N$6</c:f>
+              <c:f>'Memory Usage'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>299336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147774</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1524876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59712</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>272288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2613402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1904800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:marker val="1"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
       </c:lineChart>
@@ -2121,30 +2096,58 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mazes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -2153,11 +2156,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2171,26 +2172,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2212,26 +2207,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2292,7 +2281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2324,27 +2313,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2376,24 +2347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2569,16 +2522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,224 +2570,268 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1.4531373977661129E-2</v>
+        <v>0.01716232299804688</v>
       </c>
       <c r="C2">
-        <v>3.1523704528808587E-2</v>
+        <v>0.06823015213012695</v>
       </c>
       <c r="D2">
-        <v>5.9856891632080078E-2</v>
+        <v>0.07553768157958984</v>
       </c>
       <c r="E2">
-        <v>7.1593523025512695E-2</v>
+        <v>0.09587621688842773</v>
       </c>
       <c r="F2">
-        <v>6.6287040710449219E-2</v>
+        <v>0.0826716423034668</v>
       </c>
       <c r="G2">
-        <v>7.0326566696166992E-2</v>
+        <v>0.09094977378845215</v>
       </c>
       <c r="H2">
-        <v>9.8938226699829102E-2</v>
+        <v>0.1165740489959717</v>
       </c>
       <c r="I2">
-        <v>9.2776298522949219E-2</v>
+        <v>0.1080152988433838</v>
       </c>
       <c r="J2">
-        <v>7.1217060089111328E-2</v>
+        <v>0.09156632423400879</v>
       </c>
       <c r="K2">
-        <v>0.10009264945983889</v>
+        <v>0.1220412254333496</v>
       </c>
       <c r="L2">
-        <v>9.5781087875366211E-2</v>
+        <v>0.1382465362548828</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.4116029739379883E-2</v>
+        <v>0.02159595489501953</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>7.1253776550292969E-3</v>
+        <v>0.008615255355834961</v>
       </c>
       <c r="C3">
-        <v>1.6091823577880859E-2</v>
+        <v>0.01758646965026855</v>
       </c>
       <c r="D3">
-        <v>9.5834732055664063E-3</v>
+        <v>0.01164674758911133</v>
       </c>
       <c r="E3">
-        <v>2.6578426361083981E-2</v>
+        <v>0.03079724311828613</v>
       </c>
       <c r="F3">
-        <v>2.45518684387207E-2</v>
+        <v>0.02837252616882324</v>
       </c>
       <c r="G3">
-        <v>2.0090341567993161E-2</v>
+        <v>0.02524566650390625</v>
       </c>
       <c r="H3">
-        <v>2.762556076049805E-2</v>
+        <v>0.04194283485412598</v>
       </c>
       <c r="I3">
-        <v>2.959847450256348E-2</v>
+        <v>0.03485202789306641</v>
       </c>
       <c r="J3">
-        <v>1.8058538436889648E-2</v>
+        <v>0.02164721488952637</v>
       </c>
       <c r="K3">
-        <v>2.7761936187744141E-2</v>
+        <v>0.03421521186828613</v>
       </c>
       <c r="L3">
-        <v>2.8076887130737301E-2</v>
+        <v>0.03977847099304199</v>
       </c>
       <c r="M3">
-        <v>9.9849700927734375E-4</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="N3">
-        <v>1.453018188476562E-2</v>
+        <v>0.01514029502868652</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1.3280630111694339E-2</v>
+        <v>0.01722025871276855</v>
       </c>
       <c r="C4">
-        <v>1.9050836563110352E-2</v>
+        <v>0.02474069595336914</v>
       </c>
       <c r="D4">
-        <v>3.5394430160522461E-2</v>
+        <v>0.04384517669677734</v>
       </c>
       <c r="E4">
-        <v>3.106784820556641E-2</v>
+        <v>0.03778553009033203</v>
       </c>
       <c r="F4">
-        <v>3.0665397644042969E-2</v>
+        <v>0.03920149803161621</v>
       </c>
       <c r="G4">
-        <v>3.9586305618286133E-2</v>
+        <v>0.04629683494567871</v>
       </c>
       <c r="H4">
-        <v>3.4873485565185547E-2</v>
+        <v>0.04500627517700195</v>
       </c>
       <c r="I4">
-        <v>3.7579536437988281E-2</v>
+        <v>0.04234027862548828</v>
       </c>
       <c r="J4">
-        <v>4.5629978179931641E-2</v>
+        <v>0.05687499046325684</v>
       </c>
       <c r="K4">
-        <v>3.8610219955444343E-2</v>
+        <v>0.04593586921691895</v>
       </c>
       <c r="L4">
-        <v>3.8617134094238281E-2</v>
+        <v>0.05380964279174805</v>
       </c>
       <c r="M4">
-        <v>1.5063285827636721E-3</v>
+        <v>0.0005078315734863281</v>
       </c>
       <c r="N4">
-        <v>1.6844272613525391E-2</v>
+        <v>0.0175011157989502</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.1082699298858643</v>
+        <v>0.1443655490875244</v>
       </c>
       <c r="C5">
-        <v>9.2557907104492188E-2</v>
+        <v>0.0829617977142334</v>
       </c>
       <c r="D5">
-        <v>1.0001659393310549E-3</v>
+        <v>0.002022266387939453</v>
       </c>
       <c r="E5">
-        <v>4.0242671966552726E-3</v>
+        <v>0.004983901977539062</v>
       </c>
       <c r="F5">
-        <v>1.9977092742919922E-3</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="G5">
-        <v>2.0170211791992192E-3</v>
+        <v>0.003209829330444336</v>
       </c>
       <c r="H5">
-        <v>0.31370806694030762</v>
+        <v>0.389542818069458</v>
       </c>
       <c r="I5">
-        <v>9.1301441192626953E-2</v>
+        <v>0.1783123016357422</v>
       </c>
       <c r="J5">
-        <v>1.4920234680175779E-3</v>
+        <v>0.003012418746948242</v>
       </c>
       <c r="K5">
-        <v>0.2321324348449707</v>
+        <v>0.2831780910491943</v>
       </c>
       <c r="L5">
-        <v>5.2377462387084961E-2</v>
+        <v>0.06877613067626953</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.001006603240966797</v>
       </c>
       <c r="N5">
-        <v>6.4660787582397461E-2</v>
+        <v>0.1978034973144531</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>6.9258213043212891E-3</v>
+        <v>0.009601831436157227</v>
       </c>
       <c r="C6">
-        <v>9.5314979553222656E-3</v>
+        <v>0.01206302642822266</v>
       </c>
       <c r="D6">
-        <v>1.1070966720581049E-2</v>
+        <v>0.01460742950439453</v>
       </c>
       <c r="E6">
-        <v>1.5385866165161129E-2</v>
+        <v>0.01792645454406738</v>
       </c>
       <c r="F6">
-        <v>1.5052080154418951E-2</v>
+        <v>0.01811051368713379</v>
       </c>
       <c r="G6">
-        <v>1.4539957046508791E-2</v>
+        <v>0.01654863357543945</v>
       </c>
       <c r="H6">
-        <v>1.3517856597900391E-2</v>
+        <v>0.01713347434997559</v>
       </c>
       <c r="I6">
-        <v>1.5090227127075201E-2</v>
+        <v>0.01990604400634766</v>
       </c>
       <c r="J6">
-        <v>2.0047903060913089E-2</v>
+        <v>0.02410101890563965</v>
       </c>
       <c r="K6">
-        <v>1.503276824951172E-2</v>
+        <v>0.01981711387634277</v>
       </c>
       <c r="L6">
-        <v>1.6058683395385739E-2</v>
+        <v>0.02460837364196777</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="N6">
-        <v>8.5289478302001953E-3</v>
+        <v>0.01056599617004395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.1166551113128662</v>
+      </c>
+      <c r="C7">
+        <v>0.08032369613647461</v>
+      </c>
+      <c r="D7">
+        <v>0.00101161003112793</v>
+      </c>
+      <c r="E7">
+        <v>0.005597114562988281</v>
+      </c>
+      <c r="F7">
+        <v>0.003007888793945312</v>
+      </c>
+      <c r="G7">
+        <v>0.00255131721496582</v>
+      </c>
+      <c r="H7">
+        <v>0.3804805278778076</v>
+      </c>
+      <c r="I7">
+        <v>0.1158096790313721</v>
+      </c>
+      <c r="J7">
+        <v>0.0035247802734375</v>
+      </c>
+      <c r="K7">
+        <v>0.3034822940826416</v>
+      </c>
+      <c r="L7">
+        <v>0.07208609580993652</v>
+      </c>
+      <c r="M7">
+        <v>0.001013040542602539</v>
+      </c>
+      <c r="N7">
+        <v>0.1057941913604736</v>
       </c>
     </row>
   </sheetData>
@@ -2846,16 +2841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2904,43 +2897,43 @@
         <v>229255</v>
       </c>
       <c r="C2">
-        <v>749464</v>
+        <v>749768</v>
       </c>
       <c r="D2">
-        <v>188697</v>
+        <v>187537</v>
       </c>
       <c r="E2">
-        <v>189456</v>
+        <v>194232</v>
       </c>
       <c r="F2">
-        <v>180040</v>
+        <v>182384</v>
       </c>
       <c r="G2">
-        <v>208794</v>
+        <v>192978</v>
       </c>
       <c r="H2">
-        <v>213568</v>
+        <v>208408</v>
       </c>
       <c r="I2">
-        <v>200688</v>
+        <v>194368</v>
       </c>
       <c r="J2">
-        <v>178872</v>
+        <v>182320</v>
       </c>
       <c r="K2">
-        <v>199564</v>
+        <v>199356</v>
       </c>
       <c r="L2">
-        <v>192508</v>
+        <v>190228</v>
       </c>
       <c r="M2">
         <v>1360</v>
       </c>
       <c r="N2">
-        <v>299336</v>
+        <v>272288</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2948,10 +2941,10 @@
         <v>50564</v>
       </c>
       <c r="C3">
-        <v>292448</v>
+        <v>292504</v>
       </c>
       <c r="D3">
-        <v>46632</v>
+        <v>46608</v>
       </c>
       <c r="E3">
         <v>81115</v>
@@ -2981,10 +2974,10 @@
         <v>336</v>
       </c>
       <c r="N3">
-        <v>87712</v>
+        <v>79168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2992,10 +2985,10 @@
         <v>159176</v>
       </c>
       <c r="C4">
-        <v>402408</v>
+        <v>392808</v>
       </c>
       <c r="D4">
-        <v>144395</v>
+        <v>144371</v>
       </c>
       <c r="E4">
         <v>132496</v>
@@ -3025,10 +3018,10 @@
         <v>336</v>
       </c>
       <c r="N4">
-        <v>147774</v>
+        <v>108472</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3036,13 +3029,13 @@
         <v>2301980</v>
       </c>
       <c r="C5">
-        <v>1970520</v>
+        <v>1979872</v>
       </c>
       <c r="D5">
         <v>13624</v>
       </c>
       <c r="E5">
-        <v>41488</v>
+        <v>41056</v>
       </c>
       <c r="F5">
         <v>21696</v>
@@ -3051,10 +3044,10 @@
         <v>18600</v>
       </c>
       <c r="H5">
-        <v>376752</v>
+        <v>376800</v>
       </c>
       <c r="I5">
-        <v>204160</v>
+        <v>205184</v>
       </c>
       <c r="J5">
         <v>18296</v>
@@ -3069,10 +3062,10 @@
         <v>336</v>
       </c>
       <c r="N5">
-        <v>1524876</v>
+        <v>2613402</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3080,7 +3073,7 @@
         <v>56296</v>
       </c>
       <c r="C6">
-        <v>161880</v>
+        <v>161824</v>
       </c>
       <c r="D6">
         <v>58600</v>
@@ -3098,7 +3091,7 @@
         <v>54504</v>
       </c>
       <c r="I6">
-        <v>63496</v>
+        <v>63552</v>
       </c>
       <c r="J6">
         <v>67244</v>
@@ -3113,7 +3106,51 @@
         <v>336</v>
       </c>
       <c r="N6">
-        <v>59712</v>
+        <v>67616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>2301104</v>
+      </c>
+      <c r="C7">
+        <v>1963992</v>
+      </c>
+      <c r="D7">
+        <v>13624</v>
+      </c>
+      <c r="E7">
+        <v>40792</v>
+      </c>
+      <c r="F7">
+        <v>21696</v>
+      </c>
+      <c r="G7">
+        <v>18600</v>
+      </c>
+      <c r="H7">
+        <v>376680</v>
+      </c>
+      <c r="I7">
+        <v>204136</v>
+      </c>
+      <c r="J7">
+        <v>18296</v>
+      </c>
+      <c r="K7">
+        <v>334040</v>
+      </c>
+      <c r="L7">
+        <v>162248</v>
+      </c>
+      <c r="M7">
+        <v>336</v>
+      </c>
+      <c r="N7">
+        <v>1904800</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0678210d0a0b8db/Ambiente de Trabalho/ia_t1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B7778A11B63BB3D9D4B19471090DA9EE5EAB9AF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B23B91-DF92-45DC-93EC-528127AA4B3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Execution Time" sheetId="1" r:id="rId1"/>
     <sheet name="Memory Usage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>depth</t>
   </si>
@@ -76,12 +70,15 @@
   <si>
     <t>Maze 5</t>
   </si>
+  <si>
+    <t>Maze 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,37 +141,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -194,9 +171,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -211,40 +188,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$B$2:$B$6</c:f>
+              <c:f>'Execution Time'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4531373977661129E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1253776550292969E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3280630111694339E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1082699298858643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9258213043212891E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01501035690307617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.005385637283325195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01210284233093262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06966757774353027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005095481872558594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05582070350646973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -265,9 +242,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -282,40 +259,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$C$2:$C$6</c:f>
+              <c:f>'Execution Time'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.1523704528808587E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6091823577880859E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9050836563110352E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2557907104492188E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5314979553222656E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01833271980285645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00894618034362793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01126909255981445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07990574836730957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009502649307250977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05254888534545898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -336,9 +313,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -353,40 +330,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$D$2:$D$6</c:f>
+              <c:f>'Execution Time'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.9856891632080078E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5834732055664063E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5394430160522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0001659393310549E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1070966720581049E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05996131896972656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.006492853164672852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0213627815246582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000957489013671875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00657200813293457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0009438991546630859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -407,9 +384,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -424,40 +401,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$E$2:$E$6</c:f>
+              <c:f>'Execution Time'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1593523025512695E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6578426361083981E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.106784820556641E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0242671966552726E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5385866165161129E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04617428779602051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01541042327880859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01822090148925781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00282597541809082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008337497711181641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.002800226211547852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -478,9 +455,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -495,40 +472,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$F$2:$F$6</c:f>
+              <c:f>'Execution Time'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.6287040710449219E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.45518684387207E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0665397644042969E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9977092742919922E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5052080154418951E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04153800010681152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01392459869384766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01825690269470215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001398324966430664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008797168731689453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001392126083374023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -549,9 +526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -566,40 +543,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$G$2:$G$6</c:f>
+              <c:f>'Execution Time'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.0326566696166992E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0090341567993161E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9586305618286133E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0170211791992192E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4539957046508791E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04184222221374512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01175951957702637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0222160816192627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00129246711730957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008084774017333984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001296758651733398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -620,9 +597,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -637,40 +614,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$H$2:$H$6</c:f>
+              <c:f>'Execution Time'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.8938226699829102E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.762556076049805E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4873485565185547E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31370806694030762</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3517856597900391E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05503153800964355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01603436470031738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02003073692321777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1884529590606689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008141994476318359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1884453296661377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -691,9 +668,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -708,40 +685,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$I$2:$I$6</c:f>
+              <c:f>'Execution Time'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2776298522949219E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.959847450256348E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7579536437988281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1301441192626953E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5090227127075201E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05176448822021484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01650762557983398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02039194107055664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05387234687805176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008821725845336914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05383729934692383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -762,9 +739,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -779,40 +756,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$J$2:$J$6</c:f>
+              <c:f>'Execution Time'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1217060089111328E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8058538436889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5629978179931641E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4920234680175779E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0047903060913089E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04543757438659668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01105785369873047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02665615081787109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001303195953369141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01229619979858398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001308202743530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -833,9 +810,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -850,40 +827,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$K$2:$K$6</c:f>
+              <c:f>'Execution Time'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.10009264945983889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7761936187744141E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8610219955444343E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2321324348449707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.503276824951172E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06136012077331543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01723694801330566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0225374698638916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1533603668212891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009159088134765625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1667270660400391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -904,9 +881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -921,40 +898,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$L$2:$L$6</c:f>
+              <c:f>'Execution Time'!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.5781087875366211E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8076887130737301E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8617134094238281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2377462387084961E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6058683395385739E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05895400047302246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0182960033416748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02307295799255371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06974911689758301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01250362396240234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03723907470703125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -975,9 +952,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -992,40 +969,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$M$2:$M$6</c:f>
+              <c:f>'Execution Time'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9849700927734375E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5063285827636721E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.054473876953125e-05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0005090236663818359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0005183219909667969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001685619354248047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0005168914794921875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0001683235168457031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1046,9 +1023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Execution Time'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1063,50 +1040,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$N$2:$N$6</c:f>
+              <c:f>'Execution Time'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.4116029739379883E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.453018188476562E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6844272613525391E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4660787582397461E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5289478302001953E-3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01383376121520996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.007696390151977539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.009601593017578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05725288391113281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.003287792205810547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03214693069458008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D407-4627-A0E0-26FD3E045B17}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
@@ -1115,30 +1084,22 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -1147,11 +1108,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1162,25 +1121,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1200,9 +1147,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1217,40 +1164,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$B$2:$B$6</c:f>
+              <c:f>'Memory Usage'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>229255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50564</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>231106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50952</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>159176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2301980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56296</c:v>
+                  <c:v>2304180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2301112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1271,9 +1218,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1288,18 +1235,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$C$2:$C$6</c:f>
+              <c:f>'Memory Usage'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>749464</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>750011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>292448</c:v>
@@ -1308,20 +1258,17 @@
                   <c:v>402408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1970520</c:v>
+                  <c:v>1970552</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>161880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1963936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1342,9 +1289,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1359,40 +1306,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$D$2:$D$6</c:f>
+              <c:f>'Memory Usage'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>188697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144395</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58600</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>187745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1413,9 +1360,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1430,40 +1377,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$E$2:$E$6</c:f>
+              <c:f>'Memory Usage'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>189456</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81115</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>132496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55160</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>194247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1484,9 +1431,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1501,40 +1448,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$F$2:$F$6</c:f>
+              <c:f>'Memory Usage'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>180040</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>132899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58816</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>182409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1555,9 +1502,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1572,40 +1519,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$G$2:$G$6</c:f>
+              <c:f>'Memory Usage'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>208794</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70080</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>139688</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61560</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>193258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1626,9 +1573,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1643,40 +1590,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$H$2:$H$6</c:f>
+              <c:f>'Memory Usage'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>213568</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>208408</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>103296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>376752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54504</c:v>
+                  <c:v>126456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1697,9 +1644,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1714,40 +1661,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$I$2:$I$6</c:f>
+              <c:f>'Memory Usage'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>200688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>132216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>204160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63496</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>194368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1768,9 +1715,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1785,40 +1732,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$J$2:$J$6</c:f>
+              <c:f>'Memory Usage'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>178872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65944</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>137372</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67244</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>182600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1839,9 +1786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1856,40 +1803,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$K$2:$K$6</c:f>
+              <c:f>'Memory Usage'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>199564</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>199356</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334088</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55448</c:v>
+                  <c:v>127808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1910,9 +1857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1927,40 +1874,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$L$2:$L$6</c:f>
+              <c:f>'Memory Usage'!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>192508</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78880</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>132840</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62000</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>190228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1981,9 +1928,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1998,40 +1945,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$M$2:$M$6</c:f>
+              <c:f>'Memory Usage'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>336</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -2052,9 +1999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -2069,50 +2016,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$N$2:$N$6</c:f>
+              <c:f>'Memory Usage'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>299336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147774</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1524876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59712</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>308200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2332352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1374140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-3AC6-464B-B793-2E614EA75EB2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
+        <c:marker val="1"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
       </c:lineChart>
@@ -2121,30 +2060,22 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -2153,11 +2084,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2171,26 +2100,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2212,26 +2135,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2292,7 +2209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2324,27 +2241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2376,24 +2275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2569,16 +2450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,224 +2498,268 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1.4531373977661129E-2</v>
+        <v>0.01501035690307617</v>
       </c>
       <c r="C2">
-        <v>3.1523704528808587E-2</v>
+        <v>0.01833271980285645</v>
       </c>
       <c r="D2">
-        <v>5.9856891632080078E-2</v>
+        <v>0.05996131896972656</v>
       </c>
       <c r="E2">
-        <v>7.1593523025512695E-2</v>
+        <v>0.04617428779602051</v>
       </c>
       <c r="F2">
-        <v>6.6287040710449219E-2</v>
+        <v>0.04153800010681152</v>
       </c>
       <c r="G2">
-        <v>7.0326566696166992E-2</v>
+        <v>0.04184222221374512</v>
       </c>
       <c r="H2">
-        <v>9.8938226699829102E-2</v>
+        <v>0.05503153800964355</v>
       </c>
       <c r="I2">
-        <v>9.2776298522949219E-2</v>
+        <v>0.05176448822021484</v>
       </c>
       <c r="J2">
-        <v>7.1217060089111328E-2</v>
+        <v>0.04543757438659668</v>
       </c>
       <c r="K2">
-        <v>0.10009264945983889</v>
+        <v>0.06136012077331543</v>
       </c>
       <c r="L2">
-        <v>9.5781087875366211E-2</v>
+        <v>0.05895400047302246</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.054473876953125E-05</v>
       </c>
       <c r="N2">
-        <v>3.4116029739379883E-2</v>
+        <v>0.01383376121520996</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>7.1253776550292969E-3</v>
+        <v>0.005385637283325195</v>
       </c>
       <c r="C3">
-        <v>1.6091823577880859E-2</v>
+        <v>0.00894618034362793</v>
       </c>
       <c r="D3">
-        <v>9.5834732055664063E-3</v>
+        <v>0.006492853164672852</v>
       </c>
       <c r="E3">
-        <v>2.6578426361083981E-2</v>
+        <v>0.01541042327880859</v>
       </c>
       <c r="F3">
-        <v>2.45518684387207E-2</v>
+        <v>0.01392459869384766</v>
       </c>
       <c r="G3">
-        <v>2.0090341567993161E-2</v>
+        <v>0.01175951957702637</v>
       </c>
       <c r="H3">
-        <v>2.762556076049805E-2</v>
+        <v>0.01603436470031738</v>
       </c>
       <c r="I3">
-        <v>2.959847450256348E-2</v>
+        <v>0.01650762557983398</v>
       </c>
       <c r="J3">
-        <v>1.8058538436889648E-2</v>
+        <v>0.01105785369873047</v>
       </c>
       <c r="K3">
-        <v>2.7761936187744141E-2</v>
+        <v>0.01723694801330566</v>
       </c>
       <c r="L3">
-        <v>2.8076887130737301E-2</v>
+        <v>0.0182960033416748</v>
       </c>
       <c r="M3">
-        <v>9.9849700927734375E-4</v>
+        <v>0.0005090236663818359</v>
       </c>
       <c r="N3">
-        <v>1.453018188476562E-2</v>
+        <v>0.007696390151977539</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1.3280630111694339E-2</v>
+        <v>0.01210284233093262</v>
       </c>
       <c r="C4">
-        <v>1.9050836563110352E-2</v>
+        <v>0.01126909255981445</v>
       </c>
       <c r="D4">
-        <v>3.5394430160522461E-2</v>
+        <v>0.0213627815246582</v>
       </c>
       <c r="E4">
-        <v>3.106784820556641E-2</v>
+        <v>0.01822090148925781</v>
       </c>
       <c r="F4">
-        <v>3.0665397644042969E-2</v>
+        <v>0.01825690269470215</v>
       </c>
       <c r="G4">
-        <v>3.9586305618286133E-2</v>
+        <v>0.0222160816192627</v>
       </c>
       <c r="H4">
-        <v>3.4873485565185547E-2</v>
+        <v>0.02003073692321777</v>
       </c>
       <c r="I4">
-        <v>3.7579536437988281E-2</v>
+        <v>0.02039194107055664</v>
       </c>
       <c r="J4">
-        <v>4.5629978179931641E-2</v>
+        <v>0.02665615081787109</v>
       </c>
       <c r="K4">
-        <v>3.8610219955444343E-2</v>
+        <v>0.0225374698638916</v>
       </c>
       <c r="L4">
-        <v>3.8617134094238281E-2</v>
+        <v>0.02307295799255371</v>
       </c>
       <c r="M4">
-        <v>1.5063285827636721E-3</v>
+        <v>0.0005183219909667969</v>
       </c>
       <c r="N4">
-        <v>1.6844272613525391E-2</v>
+        <v>0.009601593017578125</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.1082699298858643</v>
+        <v>0.06966757774353027</v>
       </c>
       <c r="C5">
-        <v>9.2557907104492188E-2</v>
+        <v>0.07990574836730957</v>
       </c>
       <c r="D5">
-        <v>1.0001659393310549E-3</v>
+        <v>0.000957489013671875</v>
       </c>
       <c r="E5">
-        <v>4.0242671966552726E-3</v>
+        <v>0.00282597541809082</v>
       </c>
       <c r="F5">
-        <v>1.9977092742919922E-3</v>
+        <v>0.001398324966430664</v>
       </c>
       <c r="G5">
-        <v>2.0170211791992192E-3</v>
+        <v>0.00129246711730957</v>
       </c>
       <c r="H5">
-        <v>0.31370806694030762</v>
+        <v>0.1884529590606689</v>
       </c>
       <c r="I5">
-        <v>9.1301441192626953E-2</v>
+        <v>0.05387234687805176</v>
       </c>
       <c r="J5">
-        <v>1.4920234680175779E-3</v>
+        <v>0.001303195953369141</v>
       </c>
       <c r="K5">
-        <v>0.2321324348449707</v>
+        <v>0.1533603668212891</v>
       </c>
       <c r="L5">
-        <v>5.2377462387084961E-2</v>
+        <v>0.06974911689758301</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0001685619354248047</v>
       </c>
       <c r="N5">
-        <v>6.4660787582397461E-2</v>
+        <v>0.05725288391113281</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>6.9258213043212891E-3</v>
+        <v>0.005095481872558594</v>
       </c>
       <c r="C6">
-        <v>9.5314979553222656E-3</v>
+        <v>0.009502649307250977</v>
       </c>
       <c r="D6">
-        <v>1.1070966720581049E-2</v>
+        <v>0.00657200813293457</v>
       </c>
       <c r="E6">
-        <v>1.5385866165161129E-2</v>
+        <v>0.008337497711181641</v>
       </c>
       <c r="F6">
-        <v>1.5052080154418951E-2</v>
+        <v>0.008797168731689453</v>
       </c>
       <c r="G6">
-        <v>1.4539957046508791E-2</v>
+        <v>0.008084774017333984</v>
       </c>
       <c r="H6">
-        <v>1.3517856597900391E-2</v>
+        <v>0.008141994476318359</v>
       </c>
       <c r="I6">
-        <v>1.5090227127075201E-2</v>
+        <v>0.008821725845336914</v>
       </c>
       <c r="J6">
-        <v>2.0047903060913089E-2</v>
+        <v>0.01229619979858398</v>
       </c>
       <c r="K6">
-        <v>1.503276824951172E-2</v>
+        <v>0.009159088134765625</v>
       </c>
       <c r="L6">
-        <v>1.6058683395385739E-2</v>
+        <v>0.01250362396240234</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0005168914794921875</v>
       </c>
       <c r="N6">
-        <v>8.5289478302001953E-3</v>
+        <v>0.003287792205810547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.05582070350646973</v>
+      </c>
+      <c r="C7">
+        <v>0.05254888534545898</v>
+      </c>
+      <c r="D7">
+        <v>0.0009438991546630859</v>
+      </c>
+      <c r="E7">
+        <v>0.002800226211547852</v>
+      </c>
+      <c r="F7">
+        <v>0.001392126083374023</v>
+      </c>
+      <c r="G7">
+        <v>0.001296758651733398</v>
+      </c>
+      <c r="H7">
+        <v>0.1884453296661377</v>
+      </c>
+      <c r="I7">
+        <v>0.05383729934692383</v>
+      </c>
+      <c r="J7">
+        <v>0.001308202743530273</v>
+      </c>
+      <c r="K7">
+        <v>0.1667270660400391</v>
+      </c>
+      <c r="L7">
+        <v>0.03723907470703125</v>
+      </c>
+      <c r="M7">
+        <v>0.0001683235168457031</v>
+      </c>
+      <c r="N7">
+        <v>0.03214693069458008</v>
       </c>
     </row>
   </sheetData>
@@ -2846,16 +2769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2896,95 +2817,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>229255</v>
+        <v>231106</v>
       </c>
       <c r="C2">
-        <v>749464</v>
+        <v>750011</v>
       </c>
       <c r="D2">
-        <v>188697</v>
+        <v>187745</v>
       </c>
       <c r="E2">
-        <v>189456</v>
+        <v>194247</v>
       </c>
       <c r="F2">
-        <v>180040</v>
+        <v>182409</v>
       </c>
       <c r="G2">
-        <v>208794</v>
+        <v>193258</v>
       </c>
       <c r="H2">
-        <v>213568</v>
+        <v>208408</v>
       </c>
       <c r="I2">
-        <v>200688</v>
+        <v>194368</v>
       </c>
       <c r="J2">
-        <v>178872</v>
+        <v>182600</v>
       </c>
       <c r="K2">
-        <v>199564</v>
+        <v>199356</v>
       </c>
       <c r="L2">
-        <v>192508</v>
+        <v>190228</v>
       </c>
       <c r="M2">
-        <v>1360</v>
+        <v>1336</v>
       </c>
       <c r="N2">
-        <v>299336</v>
+        <v>308200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>50564</v>
+        <v>50952</v>
       </c>
       <c r="C3">
         <v>292448</v>
       </c>
       <c r="D3">
-        <v>46632</v>
+        <v>46616</v>
       </c>
       <c r="E3">
-        <v>81115</v>
+        <v>81131</v>
       </c>
       <c r="F3">
-        <v>74096</v>
+        <v>74104</v>
       </c>
       <c r="G3">
-        <v>70080</v>
+        <v>70088</v>
       </c>
       <c r="H3">
         <v>103296</v>
       </c>
       <c r="I3">
-        <v>79128</v>
+        <v>79144</v>
       </c>
       <c r="J3">
-        <v>65944</v>
+        <v>65952</v>
       </c>
       <c r="K3">
         <v>104000</v>
       </c>
       <c r="L3">
-        <v>78880</v>
+        <v>78888</v>
       </c>
       <c r="M3">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="N3">
-        <v>87712</v>
+        <v>79229</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2995,125 +2916,169 @@
         <v>402408</v>
       </c>
       <c r="D4">
-        <v>144395</v>
+        <v>144379</v>
       </c>
       <c r="E4">
-        <v>132496</v>
+        <v>132504</v>
       </c>
       <c r="F4">
-        <v>132899</v>
+        <v>132907</v>
       </c>
       <c r="G4">
-        <v>139688</v>
+        <v>139696</v>
       </c>
       <c r="H4">
-        <v>126448</v>
+        <v>126456</v>
       </c>
       <c r="I4">
-        <v>132216</v>
+        <v>132232</v>
       </c>
       <c r="J4">
-        <v>137372</v>
+        <v>137380</v>
       </c>
       <c r="K4">
-        <v>127800</v>
+        <v>127808</v>
       </c>
       <c r="L4">
-        <v>132840</v>
+        <v>132848</v>
       </c>
       <c r="M4">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="N4">
-        <v>147774</v>
+        <v>165223</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>2301980</v>
+        <v>2304180</v>
       </c>
       <c r="C5">
-        <v>1970520</v>
+        <v>1970552</v>
       </c>
       <c r="D5">
-        <v>13624</v>
+        <v>13632</v>
       </c>
       <c r="E5">
-        <v>41488</v>
+        <v>41064</v>
       </c>
       <c r="F5">
-        <v>21696</v>
+        <v>21704</v>
       </c>
       <c r="G5">
-        <v>18600</v>
+        <v>18608</v>
       </c>
       <c r="H5">
-        <v>376752</v>
+        <v>376808</v>
       </c>
       <c r="I5">
-        <v>204160</v>
+        <v>204168</v>
       </c>
       <c r="J5">
-        <v>18296</v>
+        <v>18304</v>
       </c>
       <c r="K5">
-        <v>334088</v>
+        <v>334096</v>
       </c>
       <c r="L5">
-        <v>162272</v>
+        <v>163040</v>
       </c>
       <c r="M5">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="N5">
-        <v>1524876</v>
+        <v>2332352</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>56296</v>
+        <v>56304</v>
       </c>
       <c r="C6">
         <v>161880</v>
       </c>
       <c r="D6">
-        <v>58600</v>
+        <v>58608</v>
       </c>
       <c r="E6">
-        <v>55160</v>
+        <v>55168</v>
       </c>
       <c r="F6">
-        <v>58816</v>
+        <v>58824</v>
       </c>
       <c r="G6">
-        <v>61560</v>
+        <v>61568</v>
       </c>
       <c r="H6">
-        <v>54504</v>
+        <v>54512</v>
       </c>
       <c r="I6">
-        <v>63496</v>
+        <v>63504</v>
       </c>
       <c r="J6">
-        <v>67244</v>
+        <v>67252</v>
       </c>
       <c r="K6">
-        <v>55448</v>
+        <v>55456</v>
       </c>
       <c r="L6">
-        <v>62000</v>
+        <v>62064</v>
       </c>
       <c r="M6">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="N6">
-        <v>59712</v>
+        <v>61136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>2301112</v>
+      </c>
+      <c r="C7">
+        <v>1963936</v>
+      </c>
+      <c r="D7">
+        <v>13632</v>
+      </c>
+      <c r="E7">
+        <v>40800</v>
+      </c>
+      <c r="F7">
+        <v>21704</v>
+      </c>
+      <c r="G7">
+        <v>18608</v>
+      </c>
+      <c r="H7">
+        <v>376688</v>
+      </c>
+      <c r="I7">
+        <v>204144</v>
+      </c>
+      <c r="J7">
+        <v>18304</v>
+      </c>
+      <c r="K7">
+        <v>334048</v>
+      </c>
+      <c r="L7">
+        <v>162256</v>
+      </c>
+      <c r="M7">
+        <v>376</v>
+      </c>
+      <c r="N7">
+        <v>1374140</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>depth</t>
   </si>
@@ -26,10 +26,10 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>a_star</t>
+    <t>a_manhattan_star</t>
   </si>
   <si>
-    <t>a_w_m_star</t>
+    <t>a_w_manhattan</t>
   </si>
   <si>
     <t>greedy_chebyshev</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Maze 5</t>
-  </si>
-  <si>
-    <t>Maze 6</t>
   </si>
 </sst>
 </file>
@@ -171,9 +168,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -188,36 +185,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$B$2:$B$7</c:f>
+              <c:f>'Execution Time'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.01716232299804688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.008615255355834961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01722025871276855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1443655490875244</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.009601831436157227</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1166551113128662</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.02037382125854492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01017522811889648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02077460289001465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1397309303283691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01052474975585938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -242,9 +233,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -259,36 +250,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$C$2:$C$7</c:f>
+              <c:f>'Execution Time'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06823015213012695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01758646965026855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02474069595336914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0829617977142334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01206302642822266</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.08032369613647461</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04822683334350586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02311992645263672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02965283393859863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1416945457458496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01504302024841309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,9 +298,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -330,36 +315,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$D$2:$D$7</c:f>
+              <c:f>'Execution Time'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.07553768157958984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01164674758911133</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04384517669677734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.002022266387939453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01460742950439453</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00101161003112793</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.08709883689880371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01606559753417969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05996799468994141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002996921539306641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01705837249755859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,7 +353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_star</c:v>
+                  <c:v>a_manhattan_star</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,9 +363,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -401,36 +380,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$E$2:$E$7</c:f>
+              <c:f>'Execution Time'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.09587621688842773</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03079724311828613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03778553009033203</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.004983901977539062</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01792645454406738</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.005597114562988281</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.09892940521240234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03467416763305664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04036879539489746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005514860153198242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01863646507263184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_w_m_star</c:v>
+                  <c:v>a_w_manhattan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -455,9 +428,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -472,36 +445,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$F$2:$F$7</c:f>
+              <c:f>'Execution Time'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.0826716423034668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02837252616882324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03920149803161621</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003007888793945312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01811051368713379</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.003007888793945312</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.08085322380065918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02936458587646484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03871941566467285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003000020980834961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02009868621826172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,9 +493,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -543,36 +510,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$G$2:$G$7</c:f>
+              <c:f>'Execution Time'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.09094977378845215</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02524566650390625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04629683494567871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003209829330444336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01654863357543945</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00255131721496582</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.09215903282165527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02604913711547852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05370855331420898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003000259399414062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02011418342590332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,9 +558,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -614,36 +575,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$H$2:$H$7</c:f>
+              <c:f>'Execution Time'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.1165740489959717</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04194283485412598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04500627517700195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.389542818069458</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01713347434997559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3804805278778076</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1329221725463867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03715705871582031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04517793655395508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4510862827301025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01907014846801758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,9 +623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -685,36 +640,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$I$2:$I$7</c:f>
+              <c:f>'Execution Time'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.1080152988433838</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03485202789306641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04234027862548828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1783123016357422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01990604400634766</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1158096790313721</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.125683069229126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04016900062561035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05065178871154785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1306614875793457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02211642265319824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,9 +688,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -756,36 +705,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$J$2:$J$7</c:f>
+              <c:f>'Execution Time'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.09156632423400879</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02164721488952637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05687499046325684</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003012418746948242</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02410101890563965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0035247802734375</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1020364761352539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02592253684997559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06985998153686523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003003835678100586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03164243698120117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,9 +753,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -827,36 +770,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$K$2:$K$7</c:f>
+              <c:f>'Execution Time'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.1220412254333496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03421521186828613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04593586921691895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2831780910491943</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01981711387634277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3034822940826416</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1512372493743896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0412898063659668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05626487731933594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4395012855529785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02558302879333496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,9 +818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -898,36 +835,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$L$2:$L$7</c:f>
+              <c:f>'Execution Time'!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.1382465362548828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03977847099304199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05380964279174805</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06877613067626953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02460837364196777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07208609580993652</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1577627658843994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04371070861816406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05776643753051758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07735443115234375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02435207366943359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,9 +883,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -969,36 +900,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$M$2:$M$7</c:f>
+              <c:f>'Execution Time'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001999616622924805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0005078315734863281</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.001006603240966797</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0009996891021728516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.001013040542602539</c:v>
+                  <c:v>0.0009813308715820312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002000570297241211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.002002239227294922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,9 +948,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Time'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Execution Time'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1040,36 +965,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Time'!$N$2:$N$7</c:f>
+              <c:f>'Execution Time'!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.02159595489501953</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01514029502868652</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0175011157989502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1978034973144531</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01056599617004395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1057941913604736</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.02464556694030762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0158836841583252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02559065818786621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1707985401153564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009085655212402344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,9 +1102,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1200,19 +1119,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$B$2:$B$7</c:f>
+              <c:f>'Memory Usage'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>229255</c:v>
                 </c:pt>
@@ -1227,9 +1143,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2301104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,9 +1167,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1271,36 +1184,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$C$2:$C$7</c:f>
+              <c:f>'Memory Usage'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>749768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>292504</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392808</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1979872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1963992</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>749464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1970520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,9 +1232,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1342,36 +1249,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$D$2:$D$7</c:f>
+              <c:f>'Memory Usage'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>187537</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144371</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>188697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144395</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13624</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_star</c:v>
+                  <c:v>a_manhattan_star</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1396,9 +1297,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1413,21 +1314,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$E$2:$E$7</c:f>
+              <c:f>'Memory Usage'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>194232</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>189456</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81115</c:v>
@@ -1436,13 +1334,10 @@
                   <c:v>132496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41056</c:v>
+                  <c:v>41488</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55160</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,7 +1352,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a_w_m_star</c:v>
+                  <c:v>a_w_manhattan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1467,9 +1362,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1484,21 +1379,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$F$2:$F$7</c:f>
+              <c:f>'Memory Usage'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>182384</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180040</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74096</c:v>
@@ -1511,9 +1403,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58816</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,9 +1427,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1555,21 +1444,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$G$2:$G$7</c:f>
+              <c:f>'Memory Usage'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>192978</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>208794</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70080</c:v>
@@ -1582,9 +1468,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61560</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,9 +1492,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1626,21 +1509,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$H$2:$H$7</c:f>
+              <c:f>'Memory Usage'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>208408</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>213568</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>103296</c:v>
@@ -1649,13 +1529,10 @@
                   <c:v>126448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>376800</c:v>
+                  <c:v>376752</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54504</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>376680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,9 +1557,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1697,21 +1574,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$I$2:$I$7</c:f>
+              <c:f>'Memory Usage'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>194368</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200688</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>79128</c:v>
@@ -1720,13 +1594,10 @@
                   <c:v>132216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>205184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63552</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>204136</c:v>
+                  <c:v>204160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,9 +1622,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1768,21 +1639,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$J$2:$J$7</c:f>
+              <c:f>'Memory Usage'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>182320</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>178872</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>65944</c:v>
@@ -1795,9 +1663,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67244</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,9 +1687,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1839,21 +1704,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$K$2:$K$7</c:f>
+              <c:f>'Memory Usage'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>199356</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>199564</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>104000</c:v>
@@ -1866,9 +1728,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55448</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>334040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,9 +1752,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1910,21 +1769,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$L$2:$L$7</c:f>
+              <c:f>'Memory Usage'!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>190228</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>192508</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78880</c:v>
@@ -1937,9 +1793,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,9 +1817,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -1981,19 +1834,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$M$2:$M$7</c:f>
+              <c:f>'Memory Usage'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -2007,9 +1857,6 @@
                   <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
@@ -2035,9 +1882,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Memory Usage'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Maze 1</c:v>
                 </c:pt>
@@ -2052,36 +1899,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Maze 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Maze 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$N$2:$N$7</c:f>
+              <c:f>'Memory Usage'!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>272288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2613402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1904800</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>244616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2620010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2575,43 +2416,43 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.01716232299804688</v>
+        <v>0.02037382125854492</v>
       </c>
       <c r="C2">
-        <v>0.06823015213012695</v>
+        <v>0.04822683334350586</v>
       </c>
       <c r="D2">
-        <v>0.07553768157958984</v>
+        <v>0.08709883689880371</v>
       </c>
       <c r="E2">
-        <v>0.09587621688842773</v>
+        <v>0.09892940521240234</v>
       </c>
       <c r="F2">
-        <v>0.0826716423034668</v>
+        <v>0.08085322380065918</v>
       </c>
       <c r="G2">
-        <v>0.09094977378845215</v>
+        <v>0.09215903282165527</v>
       </c>
       <c r="H2">
-        <v>0.1165740489959717</v>
+        <v>0.1329221725463867</v>
       </c>
       <c r="I2">
-        <v>0.1080152988433838</v>
+        <v>0.125683069229126</v>
       </c>
       <c r="J2">
-        <v>0.09156632423400879</v>
+        <v>0.1020364761352539</v>
       </c>
       <c r="K2">
-        <v>0.1220412254333496</v>
+        <v>0.1512372493743896</v>
       </c>
       <c r="L2">
-        <v>0.1382465362548828</v>
+        <v>0.1577627658843994</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02159595489501953</v>
+        <v>0.02464556694030762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2619,43 +2460,43 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.008615255355834961</v>
+        <v>0.01017522811889648</v>
       </c>
       <c r="C3">
-        <v>0.01758646965026855</v>
+        <v>0.02311992645263672</v>
       </c>
       <c r="D3">
-        <v>0.01164674758911133</v>
+        <v>0.01606559753417969</v>
       </c>
       <c r="E3">
-        <v>0.03079724311828613</v>
+        <v>0.03467416763305664</v>
       </c>
       <c r="F3">
-        <v>0.02837252616882324</v>
+        <v>0.02936458587646484</v>
       </c>
       <c r="G3">
-        <v>0.02524566650390625</v>
+        <v>0.02604913711547852</v>
       </c>
       <c r="H3">
-        <v>0.04194283485412598</v>
+        <v>0.03715705871582031</v>
       </c>
       <c r="I3">
-        <v>0.03485202789306641</v>
+        <v>0.04016900062561035</v>
       </c>
       <c r="J3">
-        <v>0.02164721488952637</v>
+        <v>0.02592253684997559</v>
       </c>
       <c r="K3">
-        <v>0.03421521186828613</v>
+        <v>0.0412898063659668</v>
       </c>
       <c r="L3">
-        <v>0.03977847099304199</v>
+        <v>0.04371070861816406</v>
       </c>
       <c r="M3">
-        <v>0.001999616622924805</v>
+        <v>0.0009813308715820312</v>
       </c>
       <c r="N3">
-        <v>0.01514029502868652</v>
+        <v>0.0158836841583252</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2663,43 +2504,43 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.01722025871276855</v>
+        <v>0.02077460289001465</v>
       </c>
       <c r="C4">
-        <v>0.02474069595336914</v>
+        <v>0.02965283393859863</v>
       </c>
       <c r="D4">
-        <v>0.04384517669677734</v>
+        <v>0.05996799468994141</v>
       </c>
       <c r="E4">
-        <v>0.03778553009033203</v>
+        <v>0.04036879539489746</v>
       </c>
       <c r="F4">
-        <v>0.03920149803161621</v>
+        <v>0.03871941566467285</v>
       </c>
       <c r="G4">
-        <v>0.04629683494567871</v>
+        <v>0.05370855331420898</v>
       </c>
       <c r="H4">
-        <v>0.04500627517700195</v>
+        <v>0.04517793655395508</v>
       </c>
       <c r="I4">
-        <v>0.04234027862548828</v>
+        <v>0.05065178871154785</v>
       </c>
       <c r="J4">
-        <v>0.05687499046325684</v>
+        <v>0.06985998153686523</v>
       </c>
       <c r="K4">
-        <v>0.04593586921691895</v>
+        <v>0.05626487731933594</v>
       </c>
       <c r="L4">
-        <v>0.05380964279174805</v>
+        <v>0.05776643753051758</v>
       </c>
       <c r="M4">
-        <v>0.0005078315734863281</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="N4">
-        <v>0.0175011157989502</v>
+        <v>0.02559065818786621</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2707,43 +2548,43 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.1443655490875244</v>
+        <v>0.1397309303283691</v>
       </c>
       <c r="C5">
-        <v>0.0829617977142334</v>
+        <v>0.1416945457458496</v>
       </c>
       <c r="D5">
-        <v>0.002022266387939453</v>
+        <v>0.002996921539306641</v>
       </c>
       <c r="E5">
-        <v>0.004983901977539062</v>
+        <v>0.005514860153198242</v>
       </c>
       <c r="F5">
-        <v>0.003007888793945312</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="G5">
-        <v>0.003209829330444336</v>
+        <v>0.003000259399414062</v>
       </c>
       <c r="H5">
-        <v>0.389542818069458</v>
+        <v>0.4510862827301025</v>
       </c>
       <c r="I5">
-        <v>0.1783123016357422</v>
+        <v>0.1306614875793457</v>
       </c>
       <c r="J5">
-        <v>0.003012418746948242</v>
+        <v>0.003003835678100586</v>
       </c>
       <c r="K5">
-        <v>0.2831780910491943</v>
+        <v>0.4395012855529785</v>
       </c>
       <c r="L5">
-        <v>0.06877613067626953</v>
+        <v>0.07735443115234375</v>
       </c>
       <c r="M5">
-        <v>0.001006603240966797</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1978034973144531</v>
+        <v>0.1707985401153564</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2751,87 +2592,43 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.009601831436157227</v>
+        <v>0.01052474975585938</v>
       </c>
       <c r="C6">
-        <v>0.01206302642822266</v>
+        <v>0.01504302024841309</v>
       </c>
       <c r="D6">
-        <v>0.01460742950439453</v>
+        <v>0.01705837249755859</v>
       </c>
       <c r="E6">
-        <v>0.01792645454406738</v>
+        <v>0.01863646507263184</v>
       </c>
       <c r="F6">
-        <v>0.01811051368713379</v>
+        <v>0.02009868621826172</v>
       </c>
       <c r="G6">
-        <v>0.01654863357543945</v>
+        <v>0.02011418342590332</v>
       </c>
       <c r="H6">
-        <v>0.01713347434997559</v>
+        <v>0.01907014846801758</v>
       </c>
       <c r="I6">
-        <v>0.01990604400634766</v>
+        <v>0.02211642265319824</v>
       </c>
       <c r="J6">
-        <v>0.02410101890563965</v>
+        <v>0.03164243698120117</v>
       </c>
       <c r="K6">
-        <v>0.01981711387634277</v>
+        <v>0.02558302879333496</v>
       </c>
       <c r="L6">
-        <v>0.02460837364196777</v>
+        <v>0.02435207366943359</v>
       </c>
       <c r="M6">
-        <v>0.0009996891021728516</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="N6">
-        <v>0.01056599617004395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0.1166551113128662</v>
-      </c>
-      <c r="C7">
-        <v>0.08032369613647461</v>
-      </c>
-      <c r="D7">
-        <v>0.00101161003112793</v>
-      </c>
-      <c r="E7">
-        <v>0.005597114562988281</v>
-      </c>
-      <c r="F7">
-        <v>0.003007888793945312</v>
-      </c>
-      <c r="G7">
-        <v>0.00255131721496582</v>
-      </c>
-      <c r="H7">
-        <v>0.3804805278778076</v>
-      </c>
-      <c r="I7">
-        <v>0.1158096790313721</v>
-      </c>
-      <c r="J7">
-        <v>0.0035247802734375</v>
-      </c>
-      <c r="K7">
-        <v>0.3034822940826416</v>
-      </c>
-      <c r="L7">
-        <v>0.07208609580993652</v>
-      </c>
-      <c r="M7">
-        <v>0.001013040542602539</v>
-      </c>
-      <c r="N7">
-        <v>0.1057941913604736</v>
+        <v>0.009085655212402344</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2897,40 +2694,40 @@
         <v>229255</v>
       </c>
       <c r="C2">
-        <v>749768</v>
+        <v>749464</v>
       </c>
       <c r="D2">
-        <v>187537</v>
+        <v>188697</v>
       </c>
       <c r="E2">
-        <v>194232</v>
+        <v>189456</v>
       </c>
       <c r="F2">
-        <v>182384</v>
+        <v>180040</v>
       </c>
       <c r="G2">
-        <v>192978</v>
+        <v>208794</v>
       </c>
       <c r="H2">
-        <v>208408</v>
+        <v>213568</v>
       </c>
       <c r="I2">
-        <v>194368</v>
+        <v>200688</v>
       </c>
       <c r="J2">
-        <v>182320</v>
+        <v>178872</v>
       </c>
       <c r="K2">
-        <v>199356</v>
+        <v>199564</v>
       </c>
       <c r="L2">
-        <v>190228</v>
+        <v>192508</v>
       </c>
       <c r="M2">
         <v>1360</v>
       </c>
       <c r="N2">
-        <v>272288</v>
+        <v>244616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2941,10 +2738,10 @@
         <v>50564</v>
       </c>
       <c r="C3">
-        <v>292504</v>
+        <v>292448</v>
       </c>
       <c r="D3">
-        <v>46608</v>
+        <v>46632</v>
       </c>
       <c r="E3">
         <v>81115</v>
@@ -2974,7 +2771,7 @@
         <v>336</v>
       </c>
       <c r="N3">
-        <v>79168</v>
+        <v>74040</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2985,10 +2782,10 @@
         <v>159176</v>
       </c>
       <c r="C4">
-        <v>392808</v>
+        <v>402408</v>
       </c>
       <c r="D4">
-        <v>144371</v>
+        <v>144395</v>
       </c>
       <c r="E4">
         <v>132496</v>
@@ -3018,7 +2815,7 @@
         <v>336</v>
       </c>
       <c r="N4">
-        <v>108472</v>
+        <v>172304</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3029,13 +2826,13 @@
         <v>2301980</v>
       </c>
       <c r="C5">
-        <v>1979872</v>
+        <v>1970520</v>
       </c>
       <c r="D5">
         <v>13624</v>
       </c>
       <c r="E5">
-        <v>41056</v>
+        <v>41488</v>
       </c>
       <c r="F5">
         <v>21696</v>
@@ -3044,10 +2841,10 @@
         <v>18600</v>
       </c>
       <c r="H5">
-        <v>376800</v>
+        <v>376752</v>
       </c>
       <c r="I5">
-        <v>205184</v>
+        <v>204160</v>
       </c>
       <c r="J5">
         <v>18296</v>
@@ -3062,7 +2859,7 @@
         <v>336</v>
       </c>
       <c r="N5">
-        <v>2613402</v>
+        <v>2620010</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3073,7 +2870,7 @@
         <v>56296</v>
       </c>
       <c r="C6">
-        <v>161824</v>
+        <v>161880</v>
       </c>
       <c r="D6">
         <v>58600</v>
@@ -3091,7 +2888,7 @@
         <v>54504</v>
       </c>
       <c r="I6">
-        <v>63552</v>
+        <v>63496</v>
       </c>
       <c r="J6">
         <v>67244</v>
@@ -3106,51 +2903,7 @@
         <v>336</v>
       </c>
       <c r="N6">
-        <v>67616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>2301104</v>
-      </c>
-      <c r="C7">
-        <v>1963992</v>
-      </c>
-      <c r="D7">
-        <v>13624</v>
-      </c>
-      <c r="E7">
-        <v>40792</v>
-      </c>
-      <c r="F7">
-        <v>21696</v>
-      </c>
-      <c r="G7">
-        <v>18600</v>
-      </c>
-      <c r="H7">
-        <v>376680</v>
-      </c>
-      <c r="I7">
-        <v>204136</v>
-      </c>
-      <c r="J7">
-        <v>18296</v>
-      </c>
-      <c r="K7">
-        <v>334040</v>
-      </c>
-      <c r="L7">
-        <v>162248</v>
-      </c>
-      <c r="M7">
-        <v>336</v>
-      </c>
-      <c r="N7">
-        <v>1904800</v>
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
